--- a/Income/EIX_inc.xlsx
+++ b/Income/EIX_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.225</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.2243</v>
+        <v>0.3161</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.3161</v>
+        <v>0.4146</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4025</v>
+        <v>0.5024</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.5085</v>
+        <v>0.6081</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.6036</v>
@@ -4006,16 +4006,16 @@
         <v>0.3174</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.3166</v>
+        <v>0.3021</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.3223</v>
+        <v>0.3067</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.315</v>
+        <v>0.2991</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.3179</v>
+        <v>0.3021</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.0913</v>
